--- a/spliced/struggle/2023-04-11_10-32-12/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-32-12/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1577559560537338</v>
+        <v>-0.380110889673233</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.740368664264679</v>
+        <v>-2.916423320770264</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2956587672233581</v>
+        <v>-0.522595226764679</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.380110889673233</v>
+        <v>-0.2550362348556518</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.916423320770264</v>
+        <v>-3.585931777954102</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.522595226764679</v>
+        <v>1.043205142021179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2550362348556518</v>
+        <v>0.2286163121461868</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.585931777954102</v>
+        <v>-2.957656860351562</v>
       </c>
       <c r="C4" t="n">
-        <v>1.043205142021179</v>
+        <v>1.703550457954407</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2286163121461868</v>
+        <v>-0.0294742472469806</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.957656860351562</v>
+        <v>-2.758056640625</v>
       </c>
       <c r="C5" t="n">
-        <v>1.703550457954407</v>
+        <v>1.507310032844544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0294742472469806</v>
+        <v>0.2777909636497497</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.758056640625</v>
+        <v>0.1227839142084121</v>
       </c>
       <c r="C6" t="n">
-        <v>1.507310032844544</v>
+        <v>0.2632829248905182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2777909636497497</v>
+        <v>0.5624541640281677</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1227839142084121</v>
+        <v>3.851505279541016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2632829248905182</v>
+        <v>-0.9796751141548156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5624541640281677</v>
+        <v>-0.4262312352657318</v>
       </c>
       <c r="B8" t="n">
-        <v>3.851505279541016</v>
+        <v>4.981453418731689</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9796751141548156</v>
+        <v>-0.9717338681221008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4262312352657318</v>
+        <v>-0.7962628602981567</v>
       </c>
       <c r="B9" t="n">
-        <v>4.981453418731689</v>
+        <v>4.429689407348633</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9717338681221008</v>
+        <v>0.3517056703567505</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.7962628602981567</v>
+        <v>-0.942259669303894</v>
       </c>
       <c r="B10" t="n">
-        <v>4.429689407348633</v>
+        <v>2.608700037002563</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3517056703567505</v>
+        <v>0.6546948552131653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.942259669303894</v>
+        <v>-0.8762862086296082</v>
       </c>
       <c r="B11" t="n">
-        <v>2.608700037002563</v>
+        <v>1.198364853858948</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6546948552131653</v>
+        <v>0.3744603991508484</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.8762862086296082</v>
+        <v>-0.3497203588485718</v>
       </c>
       <c r="B12" t="n">
-        <v>1.198364853858948</v>
+        <v>-0.912632703781128</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3744603991508484</v>
+        <v>-0.2125810980796814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.3497203588485718</v>
+        <v>1.418276429176331</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.912632703781128</v>
+        <v>-3.182302474975586</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2125810980796814</v>
+        <v>-0.7964155673980713</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.418276429176331</v>
+        <v>0.7744244337081909</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.182302474975586</v>
+        <v>-4.472449779510498</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7964155673980713</v>
+        <v>0.1556179225444793</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7744244337081909</v>
+        <v>0.039248090237379</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.472449779510498</v>
+        <v>-4.096309661865234</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1556179225444793</v>
+        <v>0.9094256162643432</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.039248090237379</v>
+        <v>0.1157589629292488</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.096309661865234</v>
+        <v>-3.650377988815308</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9094256162643432</v>
+        <v>0.6218608021736145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1157589629292488</v>
+        <v>0.1786780804395675</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.650377988815308</v>
+        <v>-0.7522805333137512</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6218608021736145</v>
+        <v>0.2764165103435516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1786780804395675</v>
+        <v>-0.0583376325666904</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.7522805333137512</v>
+        <v>4.005901336669922</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2764165103435516</v>
+        <v>-1.094670534133911</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0583376325666904</v>
+        <v>0.1313360333442688</v>
       </c>
       <c r="B19" t="n">
-        <v>4.005901336669922</v>
+        <v>5.505575656890869</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.094670534133911</v>
+        <v>-0.8086328506469727</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1313360333442688</v>
+        <v>-0.5644394755363464</v>
       </c>
       <c r="B20" t="n">
-        <v>5.505575656890869</v>
+        <v>4.288732051849365</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.8086328506469727</v>
+        <v>0.6246097087860107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.5644394755363464</v>
+        <v>-0.2765692472457886</v>
       </c>
       <c r="B21" t="n">
-        <v>4.288732051849365</v>
+        <v>2.626567840576172</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6246097087860107</v>
+        <v>0.6087272167205811</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.3174972236156463</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.27487576007843</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1149953827261924</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.2593123018741607</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.741895854473114</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.290313720703125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.6250678896903992</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-3.214983701705933</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.8246681094169617</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.2973386645317077</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-4.603633403778076</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0426078513264656</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.3110831379890442</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-4.220009803771973</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.416138410568237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2417499274015426</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-3.320205211639404</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.446528911590576</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.3194825351238251</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.44180828332901</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5250386595726013</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0740674138069152</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.8290696144104</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.7684684991836548</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.3081815242767334</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.233893394470215</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.9094256162643432</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.4476115107536316</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.42144250869751</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3985895812511444</v>
       </c>
     </row>
   </sheetData>
